--- a/Results/Results_Yulara_5_Site_1_Power.xlsx
+++ b/Results/Results_Yulara_5_Site_1_Power.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2103677212859267</v>
+        <v>0.1946700962556722</v>
       </c>
       <c r="D3" t="n">
-        <v>1.005227168580691</v>
+        <v>0.9302171857461253</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2863225371486801</v>
+        <v>0.2920847147779689</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>max\_depth: 2, max\_features: 6 \\</t>
+          <t>max\_depth: 2, max\_features: 2 \\</t>
         </is>
       </c>
     </row>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.175923091857685</v>
+        <v>0.1744698823805305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8406359608549511</v>
+        <v>0.8336919029018337</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2725571289910381</v>
+        <v>0.270562693368184</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         <v>1.006104038204154</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3465710850029269</v>
+        <v>0.3465710850029271</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2131850680189308</v>
+        <v>0.2131805773361838</v>
       </c>
       <c r="D6" t="n">
-        <v>1.018689659223343</v>
+        <v>1.018668200815774</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3674294652243215</v>
+        <v>0.3674553873753294</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -620,13 +620,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1810514474281828</v>
+        <v>0.180004985735156</v>
       </c>
       <c r="D7" t="n">
-        <v>0.865141442580447</v>
+        <v>0.8601409999351622</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2945408785878276</v>
+        <v>0.2606143658648037</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1751126271047725</v>
+        <v>0.1896974681324275</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8367632127744727</v>
+        <v>0.9064558365325736</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2666687715808727</v>
+        <v>0.3110517701337139</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1656787918407611</v>
+        <v>0.1854587131980305</v>
       </c>
       <c r="D11" t="n">
-        <v>0.791684303076109</v>
+        <v>0.8862012480673596</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2517645658387223</v>
+        <v>0.295901159125759</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2264144537814562</v>
+        <v>0.2321910471763878</v>
       </c>
       <c r="D12" t="n">
-        <v>1.081905336566019</v>
+        <v>1.109508376552066</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2980563600488379</v>
+        <v>0.2960605863698443</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2426715631036893</v>
+        <v>0.2401988028572418</v>
       </c>
       <c r="D13" t="n">
-        <v>1.159588775229517</v>
+        <v>1.147772866562917</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2955442239171165</v>
+        <v>0.2951683438880019</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2294456925310363</v>
+        <v>0.2350197726360835</v>
       </c>
       <c r="D14" t="n">
-        <v>1.096389894971208</v>
+        <v>1.123025239629539</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2968460609302014</v>
+        <v>0.2955565190977457</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1778254631248495</v>
+        <v>0.1717752899257359</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8497263064212363</v>
+        <v>0.8208159848320152</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2733938333632268</v>
+        <v>0.2642543000809127</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -881,22 +881,20 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1874992359379105</v>
+        <v>0.2181644356426673</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8959517406034563</v>
+        <v>1.042483212659841</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2561343687600742</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
-        </is>
+        <v>0.3804028698510015</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>omega: 1000, r: 5 \\</t>
+          <t>omega: 1000, r: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -910,22 +908,20 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2062179874662795</v>
+        <v>0.2181644356426673</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9853979611700263</v>
+        <v>1.042483212659841</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2811767192300131</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 1, 2, 3, 4, 5, 6, 6, 7, 8, 8, 8, 8, 8, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 23, 23, 24, 25, 26, 27, 27, 28, 29, 29, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 38, 38, 39, 39, 39, 40, 40, 41, 42, 43, 44, 45, 46, 47, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 79, 80, 81, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 25, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 42, 42, 42, 43, 44, 45, 46, 47, 48, 48, 48, 48, 48, 49, 50, 50, 51, 52, 53, 53, 54, 55, 56, 57, 57, 58, 58, 59, 60, 61, 62, 62, 62, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 31, 32, 33, 34, 34, 35, 35, 35, 36, 37, 38, 38, 39, 40, 41, 42, 43, 44, 45, 46, 46, 47, 48, 49, 50, 51, 52, 53, 53, 53, 54, 25, 26, 27, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 49, 50, 51, 52, 28, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 39, 40, 40, 41, 42, 43, 44, 45, 46, 47, 48, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 45, 46, 47, 29, 30, 31, 32, 33, 34, 35, 36, 37, 37, 38, 39, 40, 41, 42, 43, 44, 45]</t>
-        </is>
+        <v>0.3804028698510015</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>omega: 50, r: 0.3 \\</t>
+          <t>omega: 1000, r: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -939,22 +935,20 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1699538964517831</v>
+        <v>0.2083008123370609</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8121125858813538</v>
+        <v>0.9953505914248333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.259156041407037</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5]</t>
-        </is>
+        <v>0.3552823554458325</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>mu: 0.7, omega: 250 \\</t>
+          <t>mu: 0.5, omega: 1000 \\</t>
         </is>
       </c>
     </row>
@@ -968,22 +962,20 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.225782374259126</v>
+        <v>0.226124091023563</v>
       </c>
       <c r="D19" t="n">
-        <v>1.078884989600877</v>
+        <v>1.080517858814232</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3948698331340389</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+        <v>0.3978103973833274</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.1, lambda1: 0.001, r: 0.1, s: 100 \\</t>
+          <t>alpha: 0.001, beta: 0.1, lambda1: 0.001, omega: 100, sigma: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -997,22 +989,20 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2860472168544177</v>
+        <v>0.2556219654169771</v>
       </c>
       <c r="D20" t="n">
-        <v>1.366856246392157</v>
+        <v>1.221471350036101</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5197846360930916</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 4, 5, 5, 6, 7, 7, 8, 8, 8, 9, 10, 11, 11, 11, 11, 11, 11, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 20, 21, 21, 22, 23, 24, 24, 24, 25, 26, 26, 27, 28, 29, 29, 30, 30, 31, 31, 32, 32, 32, 32, 32, 33, 33, 33, 33, 33, 33, 34, 34, 35, 35, 35, 36, 36, 36, 37, 38, 39, 40, 41, 41, 42, 42, 43, 44, 45, 46, 47, 47, 47, 48, 49, 50, 50, 50, 50, 50, 50, 51, 52, 52, 52, 52, 52, 53, 53, 53, 53, 53, 53, 54, 54, 55, 55, 56, 56, 56, 56, 56, 56, 56, 56, 56, 56, 56, 56, 56, 57, 57, 57, 58, 58, 58, 59, 59, 59, 59, 59, 59, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 61, 62, 62, 63, 63, 63, 63, 64, 64, 65, 65, 65, 65, 65, 65, 66, 67, 67, 68, 68, 69, 70, 70, 71, 71, 71, 72, 72, 72, 73, 73, 73, 73, 74, 74, 75, 75, 76, 76, 76, 76, 76, 76, 76, 76, 76, 76, 77, 77, 77, 77, 78, 79, 79, 79, 79, 79, 79, 79, 79, 79, 79, 79, 79, 79, 79, 79, 80, 80, 80, 80, 80, 80, 80, 79, 79, 80, 80, 80, 81, 81, 81, 81, 82, 82, 82, 82, 82, 83, 83, 84, 85, 85, 85, 86, 86, 86, 86, 87, 88, 89, 90, 91, 92, 92, 92, 93, 93, 93, 93, 94, 94, 94, 95, 95, 96, 96, 97, 98, 98, 98, 98, 98, 98, 99, 100, 101, 102, 102, 102, 103, 104, 104, 104, 105, 105, 106, 107, 108, 109, 109, 109, 110, 110, 110, 111, 111, 112, 113, 113, 114, 115, 115, 115, 116, 116, 117, 118, 119, 120, 120, 121, 122, 123, 123, 123, 124, 124, 125, 126, 127, 128, 128, 129, 129, 129, 130, 130, 130, 131, 131, 132, 133, 134, 134, 134, 134, 134, 134, 134, 135, 135, 135, 135, 136, 136, 136, 136, 136, 136, 136, 137, 137, 137, 137, 137, 138, 138, 139, 139, 139, 139, 140, 141, 141, 142, 142, 142, 142, 143, 144, 144, 144, 144, 144, 144, 144, 144, 144, 144, 144, 144, 144, 145, 145, 146, 147, 148, 149, 149, 150, 150, 150, 150, 151, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 160, 161, 161, 161, 162, 163, 164, 164, 164, 164, 164, 165, 165, 165, 165, 165, 165, 166, 166, 167, 168, 168, 168, 169, 170, 171, 171, 171, 172, 173, 174, 175, 175, 176, 176, 176, 176, 176]</t>
-        </is>
+        <v>0.4231730705141653</v>
+      </c>
+      <c r="F20" t="n">
+        <v>390</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>alpha: 0.01, lambda1: 0.1, omega: 10000, sigma: 0.003, w: 10 \\</t>
+          <t>alpha: 0.01, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1026,22 +1016,20 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2150313042057357</v>
+        <v>0.2275338911951721</v>
       </c>
       <c r="D21" t="n">
-        <v>1.027511767307457</v>
+        <v>1.087254488493483</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3695140522987571</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+        <v>0.4001770000827641</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.1, e\_utility: 0.03, lambda1: 0.25, omega: 10000, pi: 0.3, sigma: 0.1 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.05, lambda1: 0.75, omega: 10000, pi: 0.5, sigma: 0.25 \\</t>
         </is>
       </c>
     </row>
@@ -1055,22 +1043,20 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2121302923330911</v>
+        <v>0.1884916474986744</v>
       </c>
       <c r="D22" t="n">
-        <v>1.013649488755729</v>
+        <v>0.9006939085425074</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3697829462744165</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[1, 2, 2, 2, 2, 2, 2, 3, 3, 4, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 8, 8, 8, 8, 9, 9, 9, 10, 10, 11, 11, 12, 12, 12, 12, 12, 12, 13, 13, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 15, 15, 15, 16, 16, 16, 16, 16, 17, 18, 18, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 20, 20, 20, 20, 20, 20, 20, 20, 20, 21, 21, 22, 22, 22, 22, 22, 22, 22, 22, 22, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20]</t>
-        </is>
+        <v>0.2855417896556091</v>
+      </c>
+      <c r="F22" t="n">
+        <v>19</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.1, e\_utility: 0.05, lambda1: 0.001, sigma: 50 \\</t>
+          <t>alpha: 0.1, beta: 0.25, e\_utility: 0.05, lambda1: 0.001, sigma: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1084,20 +1070,20 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2713505889183687</v>
+        <v>0.2506050574535119</v>
       </c>
       <c r="D23" t="n">
-        <v>1.29662945685652</v>
+        <v>1.19749841276076</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3810401886249875</v>
+        <v>0.3004655666067801</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: minmax, rules: 8 \\</t>
+          <t>fuzzy\_operator: min, rules: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1111,13 +1097,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.206057347068912</v>
+        <v>0.1917625040853879</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9846303524759824</v>
+        <v>0.9163234637109388</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3461849005772819</v>
+        <v>0.3169204694247891</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1138,20 +1124,20 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2226054019984314</v>
+        <v>0.2219726452010427</v>
       </c>
       <c r="D25" t="n">
-        <v>1.063704053995567</v>
+        <v>1.060680470719809</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3872259170687367</v>
+        <v>0.3885312758881269</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 2 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 1 \\</t>
         </is>
       </c>
     </row>
@@ -1165,20 +1151,20 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1931919988197074</v>
+        <v>0.1919697938121079</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9231542024549679</v>
+        <v>0.9173139829017769</v>
       </c>
       <c r="E26" t="n">
-        <v>0.260325240547621</v>
+        <v>0.2707153823630994</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>error\_metric: RMSE, fuzzy\_operator: prod, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: RMSE, fuzzy\_operator: prod, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 17, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1192,20 +1178,20 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2610473944788973</v>
+        <v>0.1920445580748718</v>
       </c>
       <c r="D27" t="n">
-        <v>1.247396376275449</v>
+        <v>0.9176712386048368</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4510960967393121</v>
+        <v>0.290631504079077</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.99, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: MAE, fuzzy\_operator: max, lambda1: 0.98, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1219,20 +1205,20 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.21812438781509</v>
+        <v>0.1806897359566609</v>
       </c>
       <c r="D28" t="n">
-        <v>1.042291846968958</v>
+        <v>0.863413030083803</v>
       </c>
       <c r="E28" t="n">
-        <v>0.376404376769552</v>
+        <v>0.2563998979109234</v>
       </c>
       <c r="F28" t="n">
         <v>19</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 2 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: MAE, fuzzy\_operator: max, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1246,13 +1232,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.2661072102786231</v>
+        <v>0.2101059302043536</v>
       </c>
       <c r="D29" t="n">
-        <v>1.271574345589406</v>
+        <v>1.00397621854862</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3616185043885311</v>
+        <v>0.2800609286486028</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1261,7 +1247,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>combination: median, n\_estimators: 50 \\</t>
+          <t>combination: weighted\_average, n\_estimators: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1275,13 +1261,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.209412353826762</v>
+        <v>0.1777690567093121</v>
       </c>
       <c r="D30" t="n">
-        <v>1.000662013241936</v>
+        <v>0.8494567723832487</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3586437569899685</v>
+        <v>0.2582718002045762</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1290,7 +1276,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>combination: weighted\_average, n\_estimators: 50 \\</t>
+          <t>combination: median, n\_estimators: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1304,13 +1290,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1835065354477346</v>
+        <v>0.1731568207039562</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8768729057698785</v>
+        <v>0.827417531229002</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3029939400579125</v>
+        <v>0.2602497450332074</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
